--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.73141476181931</v>
+        <v>64.47504231640906</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.83525097095894</v>
+        <v>88.21759733539447</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.12465859760497</v>
+        <v>79.79823365990111</v>
       </c>
       <c r="AD2" t="n">
-        <v>43731.41476181931</v>
+        <v>64475.04231640906</v>
       </c>
       <c r="AE2" t="n">
-        <v>59835.25097095894</v>
+        <v>88217.59733539447</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798033425061242e-06</v>
+        <v>1.149241279765941e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.982253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>54124.65859760497</v>
+        <v>79798.23365990112</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.68819484379051</v>
+        <v>62.77885219620156</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.09031262435506</v>
+        <v>85.89679518230091</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.21011436689191</v>
+        <v>77.69892560703178</v>
       </c>
       <c r="AD2" t="n">
-        <v>52688.19484379052</v>
+        <v>62778.85219620156</v>
       </c>
       <c r="AE2" t="n">
-        <v>72090.31262435507</v>
+        <v>85896.79518230091</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.923159426171296e-06</v>
+        <v>1.198946523761527e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.028549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>65210.11436689192</v>
+        <v>77698.92560703178</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.58808608492691</v>
+        <v>68.8188173103574</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.21685117021983</v>
+        <v>94.1609419159395</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.61089204100995</v>
+        <v>85.17435377521734</v>
       </c>
       <c r="AD2" t="n">
-        <v>50588.08608492692</v>
+        <v>68818.81731035741</v>
       </c>
       <c r="AE2" t="n">
-        <v>69216.85117021983</v>
+        <v>94160.9419159395</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.462927436468662e-06</v>
+        <v>1.222924946534121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.618827160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>62610.89204100995</v>
+        <v>85174.35377521734</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.76396331920721</v>
+        <v>60.26068360673059</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.45749416131795</v>
+        <v>82.4513258244309</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.82856840278232</v>
+        <v>74.58228700892919</v>
       </c>
       <c r="AD2" t="n">
-        <v>50763.96331920721</v>
+        <v>60260.68360673058</v>
       </c>
       <c r="AE2" t="n">
-        <v>69457.49416131795</v>
+        <v>82451.3258244309</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.849784171434768e-06</v>
+        <v>1.247881915998316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.267746913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>62828.56840278232</v>
+        <v>74582.28700892918</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.46781845915741</v>
+        <v>77.98786704727124</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.7347368676659</v>
+        <v>106.7064402759042</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.83864969996779</v>
+        <v>96.52252737942857</v>
       </c>
       <c r="AD2" t="n">
-        <v>60467.81845915742</v>
+        <v>77987.86704727124</v>
       </c>
       <c r="AE2" t="n">
-        <v>82734.7368676659</v>
+        <v>106706.4402759042</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.886660449254846e-06</v>
+        <v>1.153595779578974e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.128086419753086</v>
       </c>
       <c r="AH2" t="n">
-        <v>74838.64969996779</v>
+        <v>96522.52737942856</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.99684594157349</v>
+        <v>63.17264194014047</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.51262267306693</v>
+        <v>86.43559568273527</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.59211973727072</v>
+        <v>78.1863037439161</v>
       </c>
       <c r="AD2" t="n">
-        <v>52996.84594157349</v>
+        <v>63172.64194014047</v>
       </c>
       <c r="AE2" t="n">
-        <v>72512.62267306693</v>
+        <v>86435.59568273526</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922240814837132e-06</v>
+        <v>1.190958523425833e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.001543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>65592.11973727072</v>
+        <v>78186.3037439161</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.72444787960204</v>
+        <v>79.04473970001598</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.45411267929474</v>
+        <v>108.1525000653196</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.39393069729445</v>
+        <v>97.83057725210027</v>
       </c>
       <c r="AD2" t="n">
-        <v>61724.44787960204</v>
+        <v>79044.73970001598</v>
       </c>
       <c r="AE2" t="n">
-        <v>84454.11267929473</v>
+        <v>108152.5000653196</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419512761898882e-06</v>
+        <v>1.086428249428995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.587191358024692</v>
       </c>
       <c r="AH2" t="n">
-        <v>76393.93069729445</v>
+        <v>97830.57725210027</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.58884708484991</v>
+        <v>61.40318833771578</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.5861365207731</v>
+        <v>84.01455120111545</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.84949471951093</v>
+        <v>75.99632034966405</v>
       </c>
       <c r="AD2" t="n">
-        <v>51588.84708484991</v>
+        <v>61403.18833771578</v>
       </c>
       <c r="AE2" t="n">
-        <v>70586.1365207731</v>
+        <v>84014.55120111545</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.957681841242605e-06</v>
+        <v>1.232257154460857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.105709876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>63849.49471951093</v>
+        <v>75996.32034966405</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.14019224729275</v>
+        <v>62.1424734496693</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.3405112956589</v>
+        <v>85.02607370624706</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.53187302465351</v>
+        <v>76.91130456658696</v>
       </c>
       <c r="AD2" t="n">
-        <v>52140.19224729275</v>
+        <v>62142.4734496693</v>
       </c>
       <c r="AE2" t="n">
-        <v>71340.5112956589</v>
+        <v>85026.07370624706</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.989905632160415e-06</v>
+        <v>1.218978506948942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.028549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>64531.87302465351</v>
+        <v>76911.30456658696</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.36399967370498</v>
+        <v>63.9535094668318</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.33253743819147</v>
+        <v>87.50401308219774</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.66992333884179</v>
+        <v>79.15275288630747</v>
       </c>
       <c r="AD2" t="n">
-        <v>43363.99967370498</v>
+        <v>63953.5094668318</v>
       </c>
       <c r="AE2" t="n">
-        <v>59332.53743819147</v>
+        <v>87504.01308219775</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.848671472164224e-06</v>
+        <v>1.164228759753466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.982253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>53669.92333884179</v>
+        <v>79152.75288630747</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.04523942634882</v>
+        <v>60.65347529605373</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.84234854013499</v>
+        <v>82.98876074250887</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.17669281983167</v>
+        <v>75.06842989272062</v>
       </c>
       <c r="AD2" t="n">
-        <v>51045.23942634882</v>
+        <v>60653.47529605373</v>
       </c>
       <c r="AE2" t="n">
-        <v>69842.34854013499</v>
+        <v>82988.76074250888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.895264376870283e-06</v>
+        <v>1.243379336646256e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.206018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>63176.69281983167</v>
+        <v>75068.42989272061</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.5588034476127</v>
+        <v>68.89165224597274</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.17678537398776</v>
+        <v>94.26059788809894</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.57465006813756</v>
+        <v>85.26449872126194</v>
       </c>
       <c r="AD2" t="n">
-        <v>50558.80344761271</v>
+        <v>68891.65224597274</v>
       </c>
       <c r="AE2" t="n">
-        <v>69176.78537398776</v>
+        <v>94260.59788809894</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.625558039378291e-06</v>
+        <v>1.236117348996814e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>62574.65006813755</v>
+        <v>85264.49872126195</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.90316974614025</v>
+        <v>68.83681503912541</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.64796253600177</v>
+        <v>94.18556720244364</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.00085874311041</v>
+        <v>85.19662885893931</v>
       </c>
       <c r="AD2" t="n">
-        <v>50903.16974614025</v>
+        <v>68836.81503912542</v>
       </c>
       <c r="AE2" t="n">
-        <v>69647.96253600177</v>
+        <v>94185.56720244364</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219117561793383e-06</v>
+        <v>1.195959369864493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>63000.85874311041</v>
+        <v>85196.62885893931</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.06861703762422</v>
+        <v>98.10422508733959</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.97570539071478</v>
+        <v>134.2305288173941</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.43416438503368</v>
+        <v>121.4197555408283</v>
       </c>
       <c r="AD2" t="n">
-        <v>73068.61703762422</v>
+        <v>98104.22508733958</v>
       </c>
       <c r="AE2" t="n">
-        <v>99975.70539071478</v>
+        <v>134230.5288173941</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.719369720710804e-06</v>
+        <v>9.734168783197979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90434.16438503368</v>
+        <v>121419.7555408283</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.07495817629552</v>
+        <v>61.98527365503383</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.25125516179646</v>
+        <v>84.81098601206142</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.45113537093509</v>
+        <v>76.71674454005687</v>
       </c>
       <c r="AD2" t="n">
-        <v>52074.95817629553</v>
+        <v>61985.27365503383</v>
       </c>
       <c r="AE2" t="n">
-        <v>71251.25516179646</v>
+        <v>84810.98601206142</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933277931863267e-06</v>
+        <v>1.218149582389085e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.082561728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>64451.1353709351</v>
+        <v>76716.74454005687</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.06517231884467</v>
+        <v>63.4956450091039</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.92366866793933</v>
+        <v>86.87754273158048</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.30007643017148</v>
+        <v>78.58607198669624</v>
       </c>
       <c r="AD2" t="n">
-        <v>43065.17231884467</v>
+        <v>63495.64500910389</v>
       </c>
       <c r="AE2" t="n">
-        <v>58923.66866793933</v>
+        <v>86877.54273158047</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.879428587608186e-06</v>
+        <v>1.176305622480837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.993827160493827</v>
       </c>
       <c r="AH2" t="n">
-        <v>53300.07643017148</v>
+        <v>78586.07198669625</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.5148050717561</v>
+        <v>120.9286799805486</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.0558142318116</v>
+        <v>165.4599549461504</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.452592663062</v>
+        <v>149.6686890706408</v>
       </c>
       <c r="AD2" t="n">
-        <v>96514.8050717561</v>
+        <v>120928.6799805486</v>
       </c>
       <c r="AE2" t="n">
-        <v>132055.8142318116</v>
+        <v>165459.9549461504</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646429462953115e-06</v>
+        <v>7.8159778497374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.256944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>119452.592663062</v>
+        <v>149668.6890706408</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.58441661372439</v>
+        <v>69.17031236329073</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.21183043783489</v>
+        <v>94.64187295422997</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.60635048027719</v>
+        <v>85.60938543020445</v>
       </c>
       <c r="AD2" t="n">
-        <v>50584.4166137244</v>
+        <v>69170.31236329074</v>
       </c>
       <c r="AE2" t="n">
-        <v>69211.83043783488</v>
+        <v>94641.87295422997</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.765018522061036e-06</v>
+        <v>1.246409022562661e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.352623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>62606.35048027719</v>
+        <v>85609.38543020445</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.15756754581783</v>
+        <v>60.87142129527112</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.99604082875929</v>
+        <v>83.28696407373684</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.31571693213819</v>
+        <v>75.33817311654725</v>
       </c>
       <c r="AD2" t="n">
-        <v>51157.56754581783</v>
+        <v>60871.42129527112</v>
       </c>
       <c r="AE2" t="n">
-        <v>69996.04082875929</v>
+        <v>83286.96407373685</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.973818251244617e-06</v>
+        <v>1.245821736858349e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.132716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>63315.7169321382</v>
+        <v>75338.17311654726</v>
       </c>
     </row>
   </sheetData>
